--- a/src/main/resources/static/modle1.xlsx
+++ b/src/main/resources/static/modle1.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>乐清市嘉得电子有限公司</t>
-  </si>
-  <si>
-    <t>生产车间日报表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -75,15 +69,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,17 +97,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
+      <xdr:rowOff>449580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 1"/>
+        <xdr:cNvPr id="1061" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -139,7 +127,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="624840" y="76200"/>
+          <a:off x="624840" y="160020"/>
           <a:ext cx="975360" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -451,54 +439,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/modle1.xlsx
+++ b/src/main/resources/static/modle1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="11520" windowHeight="9096"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -69,11 +69,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -107,7 +110,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1061" name="Picture 1"/>
+        <xdr:cNvPr id="1038" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -442,7 +445,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,11 @@
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="9" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -463,18 +470,13 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
